--- a/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/js/List_of_APIs_that_can_be_used_in_JavaScript.xlsx
+++ b/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/js/List_of_APIs_that_can_be_used_in_JavaScript.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE8CA36-749B-4A57-8D1B-50AE281FC51A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1425249-B37B-4DEC-AEA8-5884DFABC294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="5340" windowWidth="22290" windowHeight="8475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="JavaScript利用可能API一覧" sheetId="1" r:id="rId1"/>
+    <sheet name="List of APIs in JavaScript" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
@@ -1155,15 +1155,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>List of APIs that can be used in JavaScript</t>
-  </si>
-  <si>
     <t>A second argument (cardinal number) needs to be specified.</t>
   </si>
   <si>
     <t>This can only be used when a character string is indicated as the argument and a new keyword is not specified.
  var num = Number($("input.num").varl);
 In other cases, do not use a constructor. Use implicit conversion from the number format (primitive format).</t>
+  </si>
+  <si>
+    <t>List of APIs that can be used in JavaScript</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1990,7 +1991,7 @@
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2505,7 +2506,7 @@
         <v>60</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
@@ -2730,7 +2731,7 @@
         <v>77</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">

--- a/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/js/List_of_APIs_that_can_be_used_in_JavaScript.xlsx
+++ b/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/js/List_of_APIs_that_can_be_used_in_JavaScript.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1425249-B37B-4DEC-AEA8-5884DFABC294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDAEEFD-99CF-431F-9641-AA8C4013548F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="5340" windowWidth="22290" windowHeight="8475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List of APIs in JavaScript" sheetId="1" r:id="rId1"/>
@@ -1469,7 +1469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1509,7 +1509,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1518,13 +1518,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1536,10 +1536,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1551,7 +1551,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1560,7 +1560,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1578,13 +1578,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1596,9 +1596,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1617,13 +1614,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1967,7 +1958,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:F252"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -1981,13 +1972,13 @@
     <col min="3" max="3" width="24.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="45.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="58.33203125" style="48" customWidth="1"/>
+    <col min="6" max="6" width="58.33203125" style="47" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F1" s="50"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
@@ -1996,14 +1987,14 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="51"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="51"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
@@ -2012,14 +2003,14 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="51"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="51"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
@@ -2034,7 +2025,7 @@
       <c r="E6" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="F6" s="49" t="s">
+      <c r="F6" s="48" t="s">
         <v>249</v>
       </c>
     </row>
@@ -2060,7 +2051,7 @@
       <c r="E8" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="43"/>
+      <c r="F8" s="42"/>
     </row>
     <row r="9" spans="2:6" ht="24" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
@@ -2086,7 +2077,7 @@
       <c r="E10" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="44"/>
+      <c r="F10" s="43"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B11" s="10"/>
@@ -2095,7 +2086,7 @@
       <c r="E11" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="45"/>
+      <c r="F11" s="44"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" s="10"/>
@@ -2288,7 +2279,7 @@
       <c r="E32" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="47"/>
+      <c r="F32" s="46"/>
     </row>
     <row r="33" spans="2:6" ht="24" x14ac:dyDescent="0.15">
       <c r="B33" s="10"/>
@@ -2325,7 +2316,7 @@
       <c r="E35" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="44"/>
+      <c r="F35" s="43"/>
     </row>
     <row r="36" spans="2:6" ht="24" x14ac:dyDescent="0.15">
       <c r="B36" s="10"/>
@@ -2356,7 +2347,7 @@
       <c r="E38" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="44"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B39" s="10"/>
@@ -2365,7 +2356,7 @@
       <c r="E39" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="F39" s="43"/>
+      <c r="F39" s="42"/>
     </row>
     <row r="40" spans="2:6" ht="36" x14ac:dyDescent="0.15">
       <c r="B40" s="10"/>
@@ -2391,7 +2382,7 @@
       <c r="E41" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="44"/>
+      <c r="F41" s="43"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B42" s="10"/>
@@ -2400,7 +2391,7 @@
       <c r="E42" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="F42" s="45"/>
+      <c r="F42" s="44"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B43" s="10"/>
@@ -2409,7 +2400,7 @@
       <c r="E43" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="43"/>
+      <c r="F43" s="42"/>
     </row>
     <row r="44" spans="2:6" ht="24" x14ac:dyDescent="0.15">
       <c r="B44" s="10"/>
@@ -2431,7 +2422,7 @@
       <c r="E45" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="F45" s="45"/>
+      <c r="F45" s="44"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B46" s="10"/>
@@ -2440,7 +2431,7 @@
       <c r="E46" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="43"/>
+      <c r="F46" s="42"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B47" s="10"/>
@@ -2451,7 +2442,7 @@
       <c r="E47" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="44"/>
+      <c r="F47" s="43"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B48" s="10"/>
@@ -2516,7 +2507,7 @@
       <c r="E54" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="43"/>
+      <c r="F54" s="42"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B55" s="10"/>
@@ -2538,7 +2529,7 @@
       <c r="E56" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="F56" s="43"/>
+      <c r="F56" s="42"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B57" s="10"/>
@@ -2605,7 +2596,7 @@
       <c r="E63" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F63" s="43"/>
+      <c r="F63" s="42"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B64" s="10"/>
@@ -2616,7 +2607,7 @@
       <c r="E64" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="44"/>
+      <c r="F64" s="43"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B65" s="10"/>
@@ -2697,7 +2688,7 @@
       <c r="E73" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F73" s="43"/>
+      <c r="F73" s="42"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B74" s="10"/>
@@ -2719,7 +2710,7 @@
       <c r="E75" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F75" s="43"/>
+      <c r="F75" s="42"/>
     </row>
     <row r="76" spans="2:6" ht="108" x14ac:dyDescent="0.15">
       <c r="B76" s="10"/>
@@ -2743,7 +2734,7 @@
       <c r="E77" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F77" s="44"/>
+      <c r="F77" s="43"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B78" s="10"/>
@@ -2761,7 +2752,7 @@
       <c r="E79" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F79" s="43"/>
+      <c r="F79" s="42"/>
     </row>
     <row r="80" spans="2:6" ht="24" x14ac:dyDescent="0.15">
       <c r="B80" s="10"/>
@@ -2787,7 +2778,7 @@
       <c r="E81" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="F81" s="44"/>
+      <c r="F81" s="43"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B82" s="10"/>
@@ -2926,7 +2917,7 @@
       <c r="E96" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F96" s="45"/>
+      <c r="F96" s="44"/>
     </row>
     <row r="97" spans="2:6" ht="72" x14ac:dyDescent="0.15">
       <c r="B97" s="10"/>
@@ -2963,7 +2954,7 @@
       <c r="E99" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F99" s="44"/>
+      <c r="F99" s="43"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" s="10"/>
@@ -2972,7 +2963,7 @@
       <c r="E100" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F100" s="43"/>
+      <c r="F100" s="42"/>
     </row>
     <row r="101" spans="2:6" ht="36" x14ac:dyDescent="0.15">
       <c r="B101" s="10"/>
@@ -2998,7 +2989,7 @@
       <c r="E102" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F102" s="46"/>
+      <c r="F102" s="45"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B103" s="10"/>
@@ -3020,7 +3011,7 @@
       <c r="E104" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F104" s="44"/>
+      <c r="F104" s="43"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B105" s="10"/>
@@ -3128,7 +3119,7 @@
       <c r="E116" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F116" s="45"/>
+      <c r="F116" s="44"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B117" s="10"/>
@@ -3137,7 +3128,7 @@
       <c r="E117" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="F117" s="45"/>
+      <c r="F117" s="44"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B118" s="39" t="s">
@@ -3161,7 +3152,7 @@
       <c r="E119" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="43" t="s">
+      <c r="F119" s="42" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3194,7 +3185,7 @@
       <c r="E122" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F122" s="43"/>
+      <c r="F122" s="42"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B123" s="10"/>
@@ -3205,7 +3196,7 @@
       <c r="E123" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F123" s="44"/>
+      <c r="F123" s="43"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B124" s="10"/>
@@ -3268,7 +3259,7 @@
       <c r="E130" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F130" s="45"/>
+      <c r="F130" s="44"/>
     </row>
     <row r="131" spans="2:6" ht="24" x14ac:dyDescent="0.15">
       <c r="B131" s="39" t="s">
@@ -3292,7 +3283,7 @@
       <c r="E132" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="F132" s="43"/>
+      <c r="F132" s="42"/>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B133" s="10"/>
@@ -3478,7 +3469,7 @@
       <c r="E152" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="F152" s="43"/>
+      <c r="F152" s="42"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B153" s="10"/>
@@ -3589,7 +3580,7 @@
       <c r="B164" s="10"/>
       <c r="C164" s="20"/>
       <c r="D164" s="30"/>
-      <c r="E164" s="42" t="s">
+      <c r="E164" s="27" t="s">
         <v>241</v>
       </c>
       <c r="F164" s="33"/>
@@ -4228,7 +4219,7 @@
       <c r="E234" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F234" s="43"/>
+      <c r="F234" s="42"/>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B235" s="10"/>
@@ -4241,7 +4232,7 @@
       <c r="E235" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="F235" s="46" t="s">
+      <c r="F235" s="45" t="s">
         <v>290</v>
       </c>
     </row>
@@ -4263,7 +4254,7 @@
       <c r="E237" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="F237" s="45"/>
+      <c r="F237" s="44"/>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B238" s="10"/>
@@ -4272,7 +4263,7 @@
       <c r="E238" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="F238" s="45"/>
+      <c r="F238" s="44"/>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B239" s="10"/>
@@ -4281,7 +4272,7 @@
       <c r="E239" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="F239" s="45"/>
+      <c r="F239" s="44"/>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B240" s="10"/>
@@ -4290,7 +4281,7 @@
       <c r="E240" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="F240" s="45"/>
+      <c r="F240" s="44"/>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B241" s="10"/>
@@ -4299,7 +4290,7 @@
       <c r="E241" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="F241" s="45"/>
+      <c r="F241" s="44"/>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B242" s="10"/>
@@ -4308,7 +4299,7 @@
       <c r="E242" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="F242" s="45"/>
+      <c r="F242" s="44"/>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B243" s="10"/>
@@ -4317,7 +4308,7 @@
       <c r="E243" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="F243" s="45"/>
+      <c r="F243" s="44"/>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B244" s="10"/>
@@ -4326,7 +4317,7 @@
       <c r="E244" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="F244" s="45"/>
+      <c r="F244" s="44"/>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B245" s="10"/>
@@ -4335,7 +4326,7 @@
       <c r="E245" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="F245" s="45"/>
+      <c r="F245" s="44"/>
     </row>
     <row r="246" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B246" s="10"/>
@@ -4344,7 +4335,7 @@
       <c r="E246" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="F246" s="43"/>
+      <c r="F246" s="42"/>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B247" s="10"/>
@@ -4364,7 +4355,7 @@
       <c r="E248" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="F248" s="45"/>
+      <c r="F248" s="44"/>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B249" s="10"/>
@@ -4373,7 +4364,7 @@
       <c r="E249" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F249" s="45"/>
+      <c r="F249" s="44"/>
     </row>
     <row r="250" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B250" s="10"/>
@@ -4382,7 +4373,7 @@
       <c r="E250" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="F250" s="45"/>
+      <c r="F250" s="44"/>
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B251" s="10"/>
@@ -4391,7 +4382,7 @@
       <c r="E251" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="F251" s="45"/>
+      <c r="F251" s="44"/>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B252" s="41"/>
@@ -4400,7 +4391,7 @@
       <c r="E252" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="F252" s="43"/>
+      <c r="F252" s="42"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E13:E31">

--- a/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/js/List_of_APIs_that_can_be_used_in_JavaScript.xlsx
+++ b/en/Sample_Project/Sample_Project_Development_Guide/PGUT_Phase/proman-style-guide/js/List_of_APIs_that_can_be_used_in_JavaScript.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDAEEFD-99CF-431F-9641-AA8C4013548F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FD9B2A-8329-483F-B20B-D9F5E6908E5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="360" windowWidth="22290" windowHeight="8475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List of APIs in JavaScript" sheetId="1" r:id="rId1"/>
@@ -1469,7 +1469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1509,7 +1509,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1518,13 +1518,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1536,10 +1536,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1551,7 +1551,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1560,7 +1560,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1578,13 +1578,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1596,6 +1596,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1614,7 +1617,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1958,7 +1967,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:F252"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -1972,13 +1981,13 @@
     <col min="3" max="3" width="24.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="45.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="58.33203125" style="47" customWidth="1"/>
+    <col min="6" max="6" width="58.33203125" style="48" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F1" s="1"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
@@ -1987,14 +1996,14 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="F3" s="51"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
@@ -2003,14 +2012,14 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="51"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="51"/>
     </row>
     <row r="6" spans="2:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
@@ -2025,7 +2034,7 @@
       <c r="E6" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="49" t="s">
         <v>249</v>
       </c>
     </row>
@@ -2051,7 +2060,7 @@
       <c r="E8" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="43"/>
     </row>
     <row r="9" spans="2:6" ht="24" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
@@ -2077,7 +2086,7 @@
       <c r="E10" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="43"/>
+      <c r="F10" s="44"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B11" s="10"/>
@@ -2086,7 +2095,7 @@
       <c r="E11" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" s="10"/>
@@ -2279,7 +2288,7 @@
       <c r="E32" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F32" s="46"/>
+      <c r="F32" s="47"/>
     </row>
     <row r="33" spans="2:6" ht="24" x14ac:dyDescent="0.15">
       <c r="B33" s="10"/>
@@ -2316,7 +2325,7 @@
       <c r="E35" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="43"/>
+      <c r="F35" s="44"/>
     </row>
     <row r="36" spans="2:6" ht="24" x14ac:dyDescent="0.15">
       <c r="B36" s="10"/>
@@ -2347,7 +2356,7 @@
       <c r="E38" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="F38" s="44"/>
+      <c r="F38" s="45"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B39" s="10"/>
@@ -2356,7 +2365,7 @@
       <c r="E39" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="F39" s="42"/>
+      <c r="F39" s="43"/>
     </row>
     <row r="40" spans="2:6" ht="36" x14ac:dyDescent="0.15">
       <c r="B40" s="10"/>
@@ -2382,7 +2391,7 @@
       <c r="E41" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="43"/>
+      <c r="F41" s="44"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B42" s="10"/>
@@ -2391,7 +2400,7 @@
       <c r="E42" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="F42" s="44"/>
+      <c r="F42" s="45"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B43" s="10"/>
@@ -2400,7 +2409,7 @@
       <c r="E43" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="42"/>
+      <c r="F43" s="43"/>
     </row>
     <row r="44" spans="2:6" ht="24" x14ac:dyDescent="0.15">
       <c r="B44" s="10"/>
@@ -2422,7 +2431,7 @@
       <c r="E45" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="F45" s="44"/>
+      <c r="F45" s="45"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B46" s="10"/>
@@ -2431,7 +2440,7 @@
       <c r="E46" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="42"/>
+      <c r="F46" s="43"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B47" s="10"/>
@@ -2442,7 +2451,7 @@
       <c r="E47" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F47" s="43"/>
+      <c r="F47" s="44"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B48" s="10"/>
@@ -2507,7 +2516,7 @@
       <c r="E54" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F54" s="42"/>
+      <c r="F54" s="43"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B55" s="10"/>
@@ -2529,7 +2538,7 @@
       <c r="E56" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="F56" s="42"/>
+      <c r="F56" s="43"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B57" s="10"/>
@@ -2596,7 +2605,7 @@
       <c r="E63" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F63" s="42"/>
+      <c r="F63" s="43"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B64" s="10"/>
@@ -2607,7 +2616,7 @@
       <c r="E64" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="43"/>
+      <c r="F64" s="44"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B65" s="10"/>
@@ -2688,7 +2697,7 @@
       <c r="E73" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F73" s="42"/>
+      <c r="F73" s="43"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B74" s="10"/>
@@ -2710,7 +2719,7 @@
       <c r="E75" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F75" s="42"/>
+      <c r="F75" s="43"/>
     </row>
     <row r="76" spans="2:6" ht="108" x14ac:dyDescent="0.15">
       <c r="B76" s="10"/>
@@ -2734,7 +2743,7 @@
       <c r="E77" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F77" s="43"/>
+      <c r="F77" s="44"/>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B78" s="10"/>
@@ -2752,7 +2761,7 @@
       <c r="E79" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F79" s="42"/>
+      <c r="F79" s="43"/>
     </row>
     <row r="80" spans="2:6" ht="24" x14ac:dyDescent="0.15">
       <c r="B80" s="10"/>
@@ -2778,7 +2787,7 @@
       <c r="E81" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="F81" s="43"/>
+      <c r="F81" s="44"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B82" s="10"/>
@@ -2917,7 +2926,7 @@
       <c r="E96" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F96" s="44"/>
+      <c r="F96" s="45"/>
     </row>
     <row r="97" spans="2:6" ht="72" x14ac:dyDescent="0.15">
       <c r="B97" s="10"/>
@@ -2954,7 +2963,7 @@
       <c r="E99" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F99" s="43"/>
+      <c r="F99" s="44"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B100" s="10"/>
@@ -2963,7 +2972,7 @@
       <c r="E100" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="F100" s="42"/>
+      <c r="F100" s="43"/>
     </row>
     <row r="101" spans="2:6" ht="36" x14ac:dyDescent="0.15">
       <c r="B101" s="10"/>
@@ -2989,7 +2998,7 @@
       <c r="E102" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F102" s="45"/>
+      <c r="F102" s="46"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B103" s="10"/>
@@ -3011,7 +3020,7 @@
       <c r="E104" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F104" s="43"/>
+      <c r="F104" s="44"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B105" s="10"/>
@@ -3119,7 +3128,7 @@
       <c r="E116" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="F116" s="44"/>
+      <c r="F116" s="45"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B117" s="10"/>
@@ -3128,7 +3137,7 @@
       <c r="E117" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="F117" s="44"/>
+      <c r="F117" s="45"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B118" s="39" t="s">
@@ -3152,7 +3161,7 @@
       <c r="E119" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F119" s="42" t="s">
+      <c r="F119" s="43" t="s">
         <v>284</v>
       </c>
     </row>
@@ -3185,7 +3194,7 @@
       <c r="E122" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F122" s="42"/>
+      <c r="F122" s="43"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B123" s="10"/>
@@ -3196,7 +3205,7 @@
       <c r="E123" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="F123" s="43"/>
+      <c r="F123" s="44"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B124" s="10"/>
@@ -3259,7 +3268,7 @@
       <c r="E130" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F130" s="44"/>
+      <c r="F130" s="45"/>
     </row>
     <row r="131" spans="2:6" ht="24" x14ac:dyDescent="0.15">
       <c r="B131" s="39" t="s">
@@ -3283,7 +3292,7 @@
       <c r="E132" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="F132" s="42"/>
+      <c r="F132" s="43"/>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B133" s="10"/>
@@ -3469,7 +3478,7 @@
       <c r="E152" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="F152" s="42"/>
+      <c r="F152" s="43"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B153" s="10"/>
@@ -3580,7 +3589,7 @@
       <c r="B164" s="10"/>
       <c r="C164" s="20"/>
       <c r="D164" s="30"/>
-      <c r="E164" s="27" t="s">
+      <c r="E164" s="42" t="s">
         <v>241</v>
       </c>
       <c r="F164" s="33"/>
@@ -4219,7 +4228,7 @@
       <c r="E234" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F234" s="42"/>
+      <c r="F234" s="43"/>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B235" s="10"/>
@@ -4232,7 +4241,7 @@
       <c r="E235" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="F235" s="45" t="s">
+      <c r="F235" s="46" t="s">
         <v>290</v>
       </c>
     </row>
@@ -4254,7 +4263,7 @@
       <c r="E237" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="F237" s="44"/>
+      <c r="F237" s="45"/>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B238" s="10"/>
@@ -4263,7 +4272,7 @@
       <c r="E238" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="F238" s="44"/>
+      <c r="F238" s="45"/>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B239" s="10"/>
@@ -4272,7 +4281,7 @@
       <c r="E239" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="F239" s="44"/>
+      <c r="F239" s="45"/>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B240" s="10"/>
@@ -4281,7 +4290,7 @@
       <c r="E240" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="F240" s="44"/>
+      <c r="F240" s="45"/>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B241" s="10"/>
@@ -4290,7 +4299,7 @@
       <c r="E241" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="F241" s="44"/>
+      <c r="F241" s="45"/>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B242" s="10"/>
@@ -4299,7 +4308,7 @@
       <c r="E242" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="F242" s="44"/>
+      <c r="F242" s="45"/>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B243" s="10"/>
@@ -4308,7 +4317,7 @@
       <c r="E243" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="F243" s="44"/>
+      <c r="F243" s="45"/>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B244" s="10"/>
@@ -4317,7 +4326,7 @@
       <c r="E244" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="F244" s="44"/>
+      <c r="F244" s="45"/>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B245" s="10"/>
@@ -4326,7 +4335,7 @@
       <c r="E245" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="F245" s="44"/>
+      <c r="F245" s="45"/>
     </row>
     <row r="246" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B246" s="10"/>
@@ -4335,7 +4344,7 @@
       <c r="E246" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="F246" s="42"/>
+      <c r="F246" s="43"/>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B247" s="10"/>
@@ -4355,7 +4364,7 @@
       <c r="E248" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="F248" s="44"/>
+      <c r="F248" s="45"/>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B249" s="10"/>
@@ -4364,7 +4373,7 @@
       <c r="E249" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="F249" s="44"/>
+      <c r="F249" s="45"/>
     </row>
     <row r="250" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B250" s="10"/>
@@ -4373,7 +4382,7 @@
       <c r="E250" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="F250" s="44"/>
+      <c r="F250" s="45"/>
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B251" s="10"/>
@@ -4382,7 +4391,7 @@
       <c r="E251" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="F251" s="44"/>
+      <c r="F251" s="45"/>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B252" s="41"/>
@@ -4391,7 +4400,7 @@
       <c r="E252" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="F252" s="42"/>
+      <c r="F252" s="43"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E13:E31">
